--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y219"/>
+  <dimension ref="A1:Y220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43318</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43431</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43433</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43499</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43509</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43528</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43550</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43558</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43560</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43573</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43579</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43605</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43616</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43626</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43633</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43640</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43642</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43674</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43685</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43693</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>43698</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43706</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43712</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43717</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43732</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43780</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>43810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43843</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43858</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43885</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43894</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43906</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43922</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>43929</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>43930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>43950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>43956</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43957</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43972</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43976</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43977</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43978</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43980</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43987</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43998</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44039</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44047</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>44053</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>44059</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44064</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>44075</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44078</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44082</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44084</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44088</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44097</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44117</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>44159</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44210</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>44214</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>44223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>44230</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44232</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44242</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44305</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44309</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44356</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44368</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44460</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44480</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44508</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44516</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44551</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44574</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44575</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44581</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44613</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44614</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44650</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44680</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44739</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44746</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>44747</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>44753</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>44761</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>44789</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>44855</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         <v>44861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>44862</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>44865</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>44867</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>44876</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44893</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>44900</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44922</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>44950</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>44963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>44966</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>44967</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44972</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44977</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44980</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>45007</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>45009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45014</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>45019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45040</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45041</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>45044</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45058</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45072</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45079</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>45082</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45084</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45091</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45112</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45123</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="R218" s="2" t="inlineStr"/>
     </row>
-    <row r="219">
+    <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
           <t>A 35078-2023</t>
@@ -13527,7 +13527,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13573,6 +13573,63 @@
         <v>0</v>
       </c>
       <c r="R219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>A 43086-2023</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y220"/>
+  <dimension ref="A1:Y221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 14785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 14785-2023.xlsx", "A 14785-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 14785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 14785-2023.png", "A 14785-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 14785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 14785-2023.docx", "A 14785-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 14785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 14785-2023.docx", "A 14785-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 14785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 14785-2023.docx", "A 14785-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 14785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 14785-2023.docx", "A 14785-2023")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 35844-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 35844-2021.xlsx", "A 35844-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 35844-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 35844-2021.png", "A 35844-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 35844-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 35844-2021.docx", "A 35844-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 35844-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 35844-2021.docx", "A 35844-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 35844-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 35844-2021.docx", "A 35844-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 35844-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 35844-2021.docx", "A 35844-2021")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -820,27 +820,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 35854-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 35854-2021.xlsx", "A 35854-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 35854-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 35854-2021.png", "A 35854-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 35854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 35854-2021.docx", "A 35854-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 35854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 35854-2021.docx", "A 35854-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 35854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 35854-2021.docx", "A 35854-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 35854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 35854-2021.docx", "A 35854-2021")</f>
         <v/>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -913,27 +913,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 36468-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 36468-2021.xlsx", "A 36468-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 36468-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 36468-2021.png", "A 36468-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 36468-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 36468-2021.docx", "A 36468-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 36468-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 36468-2021.docx", "A 36468-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 36468-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 36468-2021.docx", "A 36468-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 36468-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 36468-2021.docx", "A 36468-2021")</f>
         <v/>
       </c>
     </row>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,31 +1001,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 20396-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 20396-2022.xlsx", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 20396-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 20396-2022.png", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 20396-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 20396-2022.png", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 20396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 20396-2022.docx", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 20396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 20396-2022.docx", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 20396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 20396-2022.docx", "A 20396-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 20396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 20396-2022.docx", "A 20396-2022")</f>
         <v/>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,31 +1092,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 69304-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 69304-2021.xlsx", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 69304-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 69304-2021.png", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 69304-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 69304-2021.png", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 69304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 69304-2021.docx", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 69304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 69304-2021.docx", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 69304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 69304-2021.docx", "A 69304-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 69304-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 69304-2021.docx", "A 69304-2021")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,31 +1182,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 1688-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 1688-2022.xlsx", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 1688-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 1688-2022.png", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 1688-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 1688-2022.png", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 1688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 1688-2022.docx", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 1688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 1688-2022.docx", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 1688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 1688-2022.docx", "A 1688-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 1688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 1688-2022.docx", "A 1688-2022")</f>
         <v/>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,27 +1277,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 31017-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 31017-2022.xlsx", "A 31017-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 31017-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 31017-2022.png", "A 31017-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 31017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 31017-2022.docx", "A 31017-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 31017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 31017-2022.docx", "A 31017-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 31017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 31017-2022.docx", "A 31017-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 31017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 31017-2022.docx", "A 31017-2022")</f>
         <v/>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,27 +1368,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 31009-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 31009-2023.xlsx", "A 31009-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 31009-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 31009-2023.png", "A 31009-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 31009-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 31009-2023.docx", "A 31009-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 31009-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 31009-2023.docx", "A 31009-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 31009-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 31009-2023.docx", "A 31009-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 31009-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 31009-2023.docx", "A 31009-2023")</f>
         <v/>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 4998-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 4998-2020.xlsx", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 4998-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 4998-2020.png", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 4998-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 4998-2020.png", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 4998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 4998-2020.docx", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 4998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 4998-2020.docx", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 4998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 4998-2020.docx", "A 4998-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 4998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 4998-2020.docx", "A 4998-2020")</f>
         <v/>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,45 +1542,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 1695-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 1695-2022.xlsx", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 1695-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 1695-2022.png", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 1695-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/knärot/A 1695-2022.png", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 1695-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 1695-2022.docx", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 1695-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 1695-2022.docx", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 1695-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 1695-2022.docx", "A 1695-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 1695-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 1695-2022.docx", "A 1695-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34258-2018</t>
+          <t>A 43454-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43318</v>
+        <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1617,27 +1617,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/artfynd/A 43454-2023.xlsx", "A 43454-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/kartor/A 43454-2023.png", "A 43454-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomål/A 43454-2023.docx", "A 43454-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/klagomålsmail/A 43454-2023.docx", "A 43454-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsyn/A 43454-2023.docx", "A 43454-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_AVESTA/tillsynsmail/A 43454-2023.docx", "A 43454-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 44870-2018</t>
+          <t>A 34258-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43360</v>
+        <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1650,7 +1678,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1687,14 +1715,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 64878-2018</t>
+          <t>A 44870-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43431</v>
+        <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1707,7 +1735,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1744,14 +1772,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 65697-2018</t>
+          <t>A 64878-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43433</v>
+        <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1764,7 +1792,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1801,14 +1829,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 66380-2018</t>
+          <t>A 65697-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43436</v>
+        <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1821,7 +1849,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1858,14 +1886,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 69674-2018</t>
+          <t>A 66380-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43444</v>
+        <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1878,7 +1906,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1915,14 +1943,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 70466-2018</t>
+          <t>A 69674-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43447</v>
+        <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1935,7 +1963,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1972,14 +2000,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 71656-2018</t>
+          <t>A 70466-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43454</v>
+        <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1991,13 +2019,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2034,14 +2057,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2370-2019</t>
+          <t>A 71656-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43468</v>
+        <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2053,8 +2076,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2091,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1270-2019</t>
+          <t>A 2370-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43473</v>
+        <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2111,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2148,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7604-2019</t>
+          <t>A 1270-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43499</v>
+        <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2168,7 +2196,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2205,14 +2233,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9897-2019</t>
+          <t>A 7604-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43509</v>
+        <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2225,7 +2253,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2262,14 +2290,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13083-2019</t>
+          <t>A 9897-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43528</v>
+        <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2282,7 +2310,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2319,14 +2347,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16962-2019</t>
+          <t>A 13083-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43550</v>
+        <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2339,7 +2367,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2376,14 +2404,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18152-2019</t>
+          <t>A 16962-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43558</v>
+        <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2396,7 +2424,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2433,14 +2461,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18586-2019</t>
+          <t>A 18152-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43560</v>
+        <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2453,7 +2481,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2490,14 +2518,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20667-2019</t>
+          <t>A 18586-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43573</v>
+        <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2510,7 +2538,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2547,14 +2575,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21273-2019</t>
+          <t>A 20667-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43579</v>
+        <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2567,7 +2595,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2604,14 +2632,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21495-2019</t>
+          <t>A 21273-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2661,14 +2689,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 25193-2019</t>
+          <t>A 21495-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43605</v>
+        <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2681,7 +2709,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2718,14 +2746,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27312-2019</t>
+          <t>A 25193-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43616</v>
+        <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2738,7 +2766,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2775,14 +2803,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28514-2019</t>
+          <t>A 27312-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43626</v>
+        <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2795,7 +2823,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2832,14 +2860,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29061-2019</t>
+          <t>A 28514-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43628</v>
+        <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2880,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2889,14 +2917,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29868-2019</t>
+          <t>A 29061-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43633</v>
+        <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2908,13 +2936,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2951,14 +2974,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31035-2019</t>
+          <t>A 29868-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43640</v>
+        <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2970,8 +2993,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3008,14 +3036,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 31932-2019</t>
+          <t>A 31035-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43642</v>
+        <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3028,7 +3056,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3065,14 +3093,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32441-2019</t>
+          <t>A 31932-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43644</v>
+        <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3085,7 +3113,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3122,14 +3150,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35578-2019</t>
+          <t>A 32441-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43664</v>
+        <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3142,7 +3170,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3179,14 +3207,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36010-2019</t>
+          <t>A 35578-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43668</v>
+        <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3199,7 +3227,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3236,14 +3264,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36025-2019</t>
+          <t>A 36010-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3256,7 +3284,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3293,14 +3321,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36823-2019</t>
+          <t>A 36025-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43674</v>
+        <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3313,7 +3341,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3350,14 +3378,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36824-2019</t>
+          <t>A 36823-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3370,7 +3398,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3407,14 +3435,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38526-2019</t>
+          <t>A 36824-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43685</v>
+        <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3427,7 +3455,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3464,14 +3492,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40066-2019</t>
+          <t>A 38526-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43693</v>
+        <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3483,13 +3511,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3526,14 +3549,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40068-2019</t>
+          <t>A 40066-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3551,7 +3574,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3588,14 +3611,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40100-2019</t>
+          <t>A 40068-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3613,7 +3636,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3650,14 +3673,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40058-2019</t>
+          <t>A 40100-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3675,7 +3698,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3712,14 +3735,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40088-2019</t>
+          <t>A 40058-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3737,7 +3760,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3774,14 +3797,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41335-2019</t>
+          <t>A 40088-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43698</v>
+        <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3799,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3836,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41066-2019</t>
+          <t>A 41335-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3855,8 +3878,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3893,14 +3921,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41062-2019</t>
+          <t>A 41066-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3913,7 +3941,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3950,14 +3978,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43523-2019</t>
+          <t>A 41062-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43706</v>
+        <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3969,13 +3997,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4012,14 +4035,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 44663-2019</t>
+          <t>A 43523-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43712</v>
+        <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4031,8 +4054,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4069,14 +4097,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45827-2019</t>
+          <t>A 44663-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43717</v>
+        <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4089,7 +4117,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4126,14 +4154,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49272-2019</t>
+          <t>A 45827-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43731</v>
+        <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4146,7 +4174,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4183,14 +4211,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49620-2019</t>
+          <t>A 49272-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4203,7 +4231,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4240,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53459-2019</t>
+          <t>A 49620-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43748</v>
+        <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4260,7 +4288,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4297,14 +4325,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53977-2019</t>
+          <t>A 53459-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4316,13 +4344,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4359,14 +4382,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60217-2019</t>
+          <t>A 53977-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43780</v>
+        <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4378,8 +4401,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4416,14 +4444,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60280-2019</t>
+          <t>A 60217-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4464,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4473,14 +4501,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60414-2019</t>
+          <t>A 60280-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4492,13 +4520,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4535,14 +4558,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60201-2019</t>
+          <t>A 60414-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4554,8 +4577,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4592,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60304-2019</t>
+          <t>A 60201-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4611,13 +4639,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4654,14 +4677,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62120-2019</t>
+          <t>A 60304-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43782</v>
+        <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,8 +4696,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4711,14 +4739,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62818-2019</t>
+          <t>A 62120-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43790</v>
+        <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4731,7 +4759,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4768,14 +4796,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 67066-2019</t>
+          <t>A 62818-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43805</v>
+        <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,13 +4815,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 66721-2019</t>
+          <t>A 67066-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43810</v>
+        <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,8 +4872,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4915,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2746-2020</t>
+          <t>A 66721-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43843</v>
+        <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4907,7 +4935,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4944,14 +4972,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4632-2020</t>
+          <t>A 2746-2020</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43858</v>
+        <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4964,7 +4992,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5001,14 +5029,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10881-2020</t>
+          <t>A 4632-2020</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43885</v>
+        <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5021,7 +5049,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5058,14 +5086,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11310-2020</t>
+          <t>A 10881-2020</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,13 +5105,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>5.1</v>
+        <v>11.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5120,14 +5143,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11780-2020</t>
+          <t>A 11310-2020</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,8 +5162,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5177,14 +5205,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11721-2020</t>
+          <t>A 11780-2020</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5197,7 +5225,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5234,14 +5262,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13840-2020</t>
+          <t>A 11721-2020</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43906</v>
+        <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5254,7 +5282,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5291,14 +5319,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17268-2020</t>
+          <t>A 13840-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43922</v>
+        <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5311,7 +5339,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5348,14 +5376,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18541-2020</t>
+          <t>A 17268-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43929</v>
+        <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5396,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5405,14 +5433,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18686-2020</t>
+          <t>A 18541-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,13 +5452,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5490,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20955-2020</t>
+          <t>A 18686-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43950</v>
+        <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,8 +5509,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5552,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21454-2020</t>
+          <t>A 20955-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43956</v>
+        <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5572,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5609,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21455-2020</t>
+          <t>A 21454-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5629,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5638,14 +5666,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21654-2020</t>
+          <t>A 21455-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5686,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5695,14 +5723,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24087-2020</t>
+          <t>A 21654-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43972</v>
+        <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5712,11 +5740,6 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>AVESTA</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -5757,14 +5780,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24273-2020</t>
+          <t>A 24087-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43976</v>
+        <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,8 +5799,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5814,14 +5842,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24556-2020</t>
+          <t>A 24273-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,14 +5899,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24697-2020</t>
+          <t>A 24556-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5919,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5928,14 +5956,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25134-2020</t>
+          <t>A 24697-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5976,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5985,14 +6013,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26443-2020</t>
+          <t>A 25134-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43987</v>
+        <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6004,13 +6032,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6047,14 +6070,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26444-2020</t>
+          <t>A 26443-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6095,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6109,14 +6132,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28661-2020</t>
+          <t>A 26444-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43998</v>
+        <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,8 +6151,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6166,14 +6194,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35075-2020</t>
+          <t>A 28661-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44039</v>
+        <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6214,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6223,14 +6251,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36027-2020</t>
+          <t>A 35075-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44047</v>
+        <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,13 +6270,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6285,14 +6308,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36948-2020</t>
+          <t>A 36027-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44053</v>
+        <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6304,8 +6327,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6342,14 +6370,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38121-2020</t>
+          <t>A 36948-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44059</v>
+        <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6361,13 +6389,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6404,14 +6427,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39495-2020</t>
+          <t>A 38121-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44064</v>
+        <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6429,7 +6452,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6466,14 +6489,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42029-2020</t>
+          <t>A 39495-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44075</v>
+        <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6485,8 +6508,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6523,14 +6551,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43056-2020</t>
+          <t>A 42029-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44078</v>
+        <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6542,13 +6570,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6585,14 +6608,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43488-2020</t>
+          <t>A 43056-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44082</v>
+        <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6604,8 +6627,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6642,14 +6670,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43799-2020</t>
+          <t>A 43488-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6661,13 +6689,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6704,14 +6727,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44240-2020</t>
+          <t>A 43799-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,8 +6746,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6761,14 +6789,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44310-2020</t>
+          <t>A 44240-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6781,7 +6809,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6818,14 +6846,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45205-2020</t>
+          <t>A 44310-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,13 +6865,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6880,14 +6903,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47287-2020</t>
+          <t>A 45205-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44097</v>
+        <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6899,8 +6922,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6937,14 +6965,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52312-2020</t>
+          <t>A 47287-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44117</v>
+        <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6957,7 +6985,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6994,14 +7022,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52313-2020</t>
+          <t>A 52312-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7014,7 +7042,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7051,14 +7079,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52373-2020</t>
+          <t>A 52313-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7070,13 +7098,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7113,14 +7136,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52888-2020</t>
+          <t>A 52373-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7161,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7175,14 +7198,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52887-2020</t>
+          <t>A 52888-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7200,7 +7223,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7237,14 +7260,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62147-2020</t>
+          <t>A 52887-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44159</v>
+        <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,8 +7279,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7294,14 +7322,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63104-2020</t>
+          <t>A 62147-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7314,7 +7342,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7351,14 +7379,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1864-2021</t>
+          <t>A 63104-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44210</v>
+        <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7371,7 +7399,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7408,14 +7436,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2466-2021</t>
+          <t>A 1864-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7428,7 +7456,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7465,14 +7493,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4275-2021</t>
+          <t>A 2466-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44223</v>
+        <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7485,7 +7513,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7522,14 +7550,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5769-2021</t>
+          <t>A 4275-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44230</v>
+        <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7542,7 +7570,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7579,14 +7607,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5704-2021</t>
+          <t>A 5769-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7599,7 +7627,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7636,14 +7664,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6257-2021</t>
+          <t>A 5704-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7656,7 +7684,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7693,14 +7721,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7672-2021</t>
+          <t>A 6257-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44242</v>
+        <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7713,7 +7741,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7750,14 +7778,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18291-2021</t>
+          <t>A 7672-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44305</v>
+        <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7770,7 +7798,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7807,14 +7835,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19797-2021</t>
+          <t>A 18291-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,13 +7854,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7869,14 +7892,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19867-2021</t>
+          <t>A 19797-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44313</v>
+        <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7888,8 +7911,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>11.4</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7926,14 +7954,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23005-2021</t>
+          <t>A 19867-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44328</v>
+        <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7974,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7983,14 +8011,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23347-2021</t>
+          <t>A 23005-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44333</v>
+        <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8031,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>13</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8040,14 +8068,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27221-2021</t>
+          <t>A 23347-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44350</v>
+        <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8059,13 +8087,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8102,14 +8125,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28514-2021</t>
+          <t>A 27221-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44356</v>
+        <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8119,6 +8142,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -8159,14 +8187,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28521-2021</t>
+          <t>A 28514-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8179,7 +8207,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8216,14 +8244,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31126-2021</t>
+          <t>A 28521-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44368</v>
+        <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8236,7 +8264,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8273,14 +8301,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35855-2021</t>
+          <t>A 31126-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44386</v>
+        <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8292,13 +8320,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8335,14 +8358,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39164-2021</t>
+          <t>A 35855-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44412</v>
+        <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8354,8 +8377,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8392,14 +8420,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46221-2021</t>
+          <t>A 39164-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44442</v>
+        <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8412,7 +8440,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8449,14 +8477,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49392-2021</t>
+          <t>A 46221-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8469,7 +8497,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8506,14 +8534,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50806-2021</t>
+          <t>A 49392-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44459</v>
+        <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8526,7 +8554,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.5</v>
+        <v>8.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8563,14 +8591,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50886-2021</t>
+          <t>A 50806-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8583,7 +8611,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8620,14 +8648,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52818-2021</t>
+          <t>A 50886-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44467</v>
+        <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8640,7 +8668,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8677,14 +8705,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56428-2021</t>
+          <t>A 52818-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44480</v>
+        <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8697,7 +8725,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8734,14 +8762,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56954-2021</t>
+          <t>A 56428-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44482</v>
+        <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8753,13 +8781,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8796,14 +8819,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 63519-2021</t>
+          <t>A 56954-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44508</v>
+        <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8815,8 +8838,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8853,14 +8881,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 65738-2021</t>
+          <t>A 63519-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44516</v>
+        <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8873,7 +8901,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8910,14 +8938,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 73377-2021</t>
+          <t>A 65738-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44551</v>
+        <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8930,7 +8958,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8967,14 +8995,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1712-2022</t>
+          <t>A 73377-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44574</v>
+        <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8987,7 +9015,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20.5</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9024,14 +9052,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1977-2022</t>
+          <t>A 1712-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9044,7 +9072,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>20.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9081,14 +9109,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2800-2022</t>
+          <t>A 1977-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9101,7 +9129,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9138,14 +9166,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2808-2022</t>
+          <t>A 2800-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9158,7 +9186,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9195,14 +9223,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8759-2022</t>
+          <t>A 2808-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44613</v>
+        <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9215,7 +9243,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>12.9</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9252,14 +9280,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8785-2022</t>
+          <t>A 8759-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9272,7 +9300,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>12.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9309,14 +9337,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9403-2022</t>
+          <t>A 8785-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44616</v>
+        <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9329,7 +9357,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9366,14 +9394,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13922-2022</t>
+          <t>A 9403-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44650</v>
+        <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9386,7 +9414,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9423,14 +9451,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17640-2022</t>
+          <t>A 13922-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44680</v>
+        <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9443,7 +9471,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9480,14 +9508,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 23365-2022</t>
+          <t>A 17640-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44720</v>
+        <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9500,7 +9528,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9537,14 +9565,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 26527-2022</t>
+          <t>A 23365-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44739</v>
+        <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9557,7 +9585,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9594,14 +9622,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 28108-2022</t>
+          <t>A 26527-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44746</v>
+        <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,14 +9679,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 28403-2022</t>
+          <t>A 28108-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9671,7 +9699,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>15.7</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9708,14 +9736,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29464-2022</t>
+          <t>A 28403-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44753</v>
+        <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9728,7 +9756,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>15.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9765,14 +9793,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30446-2022</t>
+          <t>A 29464-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44761</v>
+        <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9785,7 +9813,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9822,14 +9850,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33655-2022</t>
+          <t>A 30446-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44789</v>
+        <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9842,7 +9870,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9879,14 +9907,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33777-2022</t>
+          <t>A 33655-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9899,7 +9927,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9936,14 +9964,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44141-2022</t>
+          <t>A 33777-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44839</v>
+        <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9956,7 +9984,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9993,14 +10021,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44133-2022</t>
+          <t>A 44141-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10013,7 +10041,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10050,14 +10078,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46819-2022</t>
+          <t>A 44133-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44851</v>
+        <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10070,7 +10098,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10107,14 +10135,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48746-2022</t>
+          <t>A 46819-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44855</v>
+        <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10127,7 +10155,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>36.8</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10164,14 +10192,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49358-2022</t>
+          <t>A 48746-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44861</v>
+        <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10184,7 +10212,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>36.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10221,14 +10249,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49628-2022</t>
+          <t>A 49358-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10240,13 +10268,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10283,14 +10306,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49614-2022</t>
+          <t>A 49628-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10302,8 +10325,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10340,14 +10368,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49618-2022</t>
+          <t>A 49614-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10360,7 +10388,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10397,14 +10425,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49615-2022</t>
+          <t>A 49618-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10417,7 +10445,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10454,14 +10482,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49619-2022</t>
+          <t>A 49615-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10474,7 +10502,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10511,14 +10539,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50900-2022</t>
+          <t>A 49619-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10531,7 +10559,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>14.8</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10568,14 +10596,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51789-2022</t>
+          <t>A 50900-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44867</v>
+        <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10588,7 +10616,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>14.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10625,14 +10653,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53119-2022</t>
+          <t>A 51789-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44876</v>
+        <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10644,13 +10672,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10687,14 +10710,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56546-2022</t>
+          <t>A 53119-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10708,11 +10731,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10749,14 +10772,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56464-2022</t>
+          <t>A 56546-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10768,8 +10791,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10806,14 +10834,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58094-2022</t>
+          <t>A 56464-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10826,7 +10854,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10863,14 +10891,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 173-2023</t>
+          <t>A 58094-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44922</v>
+        <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10883,7 +10911,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10920,14 +10948,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 3638-2023</t>
+          <t>A 173-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44950</v>
+        <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10940,7 +10968,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10977,14 +11005,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 6262-2023</t>
+          <t>A 3638-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44963</v>
+        <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10997,7 +11025,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11034,14 +11062,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6521-2023</t>
+          <t>A 6262-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44966</v>
+        <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11054,7 +11082,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11091,14 +11119,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6971-2023</t>
+          <t>A 6521-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11111,7 +11139,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11148,14 +11176,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 7317-2023</t>
+          <t>A 6971-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11168,7 +11196,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11205,14 +11233,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8524-2023</t>
+          <t>A 7317-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44972</v>
+        <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11225,7 +11253,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11262,14 +11290,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8520-2023</t>
+          <t>A 8524-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11282,7 +11310,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11319,14 +11347,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8698-2023</t>
+          <t>A 8520-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11339,7 +11367,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11376,14 +11404,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8523-2023</t>
+          <t>A 8698-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44977</v>
+        <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11396,7 +11424,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>17.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11433,14 +11461,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8521-2023</t>
+          <t>A 8523-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11453,7 +11481,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11490,14 +11518,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9148-2023</t>
+          <t>A 8521-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44980</v>
+        <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11510,7 +11538,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11547,14 +11575,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 14030-2023</t>
+          <t>A 9148-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11567,7 +11595,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11604,14 +11632,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 14023-2023</t>
+          <t>A 14030-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11624,7 +11652,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11661,14 +11689,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 14027-2023</t>
+          <t>A 14023-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11681,7 +11709,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11718,14 +11746,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 14021-2023</t>
+          <t>A 14027-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11738,7 +11766,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11775,14 +11803,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14090-2023</t>
+          <t>A 14021-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45009</v>
+        <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11795,7 +11823,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11832,14 +11860,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14773-2023</t>
+          <t>A 14090-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45014</v>
+        <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11852,7 +11880,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11889,14 +11917,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15066-2023</t>
+          <t>A 14773-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45015</v>
+        <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11909,7 +11937,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11946,14 +11974,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14944-2023</t>
+          <t>A 15066-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11994,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12003,14 +12031,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 15361-2023</t>
+          <t>A 14944-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12051,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12060,14 +12088,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17560-2023</t>
+          <t>A 15361-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45036</v>
+        <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12108,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12117,14 +12145,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18197-2023</t>
+          <t>A 17560-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45040</v>
+        <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12165,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12174,14 +12202,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 18333-2023</t>
+          <t>A 18197-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45041</v>
+        <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12222,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12231,14 +12259,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 18966-2023</t>
+          <t>A 18333-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45044</v>
+        <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12279,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12288,14 +12316,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18805-2023</t>
+          <t>A 18966-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12336,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12345,14 +12373,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 21430-2023</t>
+          <t>A 18805-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45058</v>
+        <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12362,11 +12390,6 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>AVESTA</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -12407,14 +12430,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20705-2023</t>
+          <t>A 21430-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12426,8 +12449,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>17.6</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12464,14 +12492,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 21412-2023</t>
+          <t>A 20705-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12483,13 +12511,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>3.4</v>
+        <v>17.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12526,14 +12549,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21322-2023</t>
+          <t>A 21412-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12551,7 +12574,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12588,14 +12611,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 22876-2023</t>
+          <t>A 21322-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45070</v>
+        <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12613,7 +12636,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>15.8</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12650,14 +12673,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 22818-2023</t>
+          <t>A 22876-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12669,8 +12692,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>15.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12707,14 +12735,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22816-2023</t>
+          <t>A 22818-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12727,7 +12755,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12764,14 +12792,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 24177-2023</t>
+          <t>A 22816-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45079</v>
+        <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12784,7 +12812,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12821,14 +12849,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 25445-2023</t>
+          <t>A 24177-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12841,7 +12869,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12878,14 +12906,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 25463-2023</t>
+          <t>A 25445-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12898,7 +12926,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12935,14 +12963,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 25743-2023</t>
+          <t>A 25463-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12955,7 +12983,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12992,14 +13020,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 26317-2023</t>
+          <t>A 25743-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13012,7 +13040,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13049,14 +13077,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31138-2023</t>
+          <t>A 26317-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45103</v>
+        <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,13 +13096,8 @@
           <t>AVESTA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13111,14 +13134,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 31116-2023</t>
+          <t>A 31138-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13136,7 +13159,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>37.2</v>
+        <v>4.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13173,14 +13196,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 31136-2023</t>
+          <t>A 31116-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13221,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.9</v>
+        <v>37.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13235,14 +13258,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 30612-2023</t>
+          <t>A 31136-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45112</v>
+        <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13254,8 +13277,13 @@
           <t>AVESTA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13292,14 +13320,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 32684-2023</t>
+          <t>A 30612-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13312,7 +13340,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13349,14 +13377,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 32682-2023</t>
+          <t>A 32684-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13369,7 +13397,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13406,14 +13434,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 32768-2023</t>
+          <t>A 32682-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45123</v>
+        <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13426,7 +13454,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13463,14 +13491,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 32771-2023</t>
+          <t>A 32768-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13483,7 +13511,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13520,116 +13548,173 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
+          <t>A 32771-2023</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>45123</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220" ht="15" customHeight="1">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>A 35078-2023</t>
         </is>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B220" s="1" t="n">
         <v>45142</v>
       </c>
-      <c r="C219" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>AVESTA</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
+      <c r="C220" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
         <v>3.1</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0</v>
-      </c>
-      <c r="P219" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>0</v>
-      </c>
-      <c r="R219" s="2" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" s="2" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>A 43086-2023</t>
         </is>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B221" s="1" t="n">
         <v>45182</v>
       </c>
-      <c r="C220" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>AVESTA</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
+      <c r="C221" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
         <v>3.4</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0</v>
-      </c>
-      <c r="P220" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>0</v>
-      </c>
-      <c r="R220" s="2" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="R220" s="2" t="inlineStr"/>
     </row>
-    <row r="221">
+    <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
           <t>A 43086-2023</t>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,6 +13715,63 @@
         <v>0</v>
       </c>
       <c r="R221" s="2" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>A 47402-2023</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AVESTA</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45202</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44386</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>44699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44531</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44574</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44768</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45103</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>43859</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44574</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45184</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43431</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43436</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43454</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>43468</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>43473</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43499</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>43509</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43528</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43550</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43558</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>43560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>43573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>43580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43605</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43626</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43633</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43640</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>43642</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>43644</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>43664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43668</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43668</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43674</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43674</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43693</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43693</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43698</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43698</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43698</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43717</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43732</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43780</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43780</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43780</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43805</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43843</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43858</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43885</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43886</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43894</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43894</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43906</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43922</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>43929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>43930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>43950</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43956</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43956</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43957</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>43972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43976</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43977</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43978</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43987</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43998</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44039</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44047</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         <v>44059</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44078</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>44082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>44082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44084</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44084</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>44088</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44097</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>44117</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>44118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44159</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44159</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44214</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44223</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44305</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44313</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44333</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>44350</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44356</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44356</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44368</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44386</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44412</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44442</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>44454</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44459</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44460</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44508</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44516</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44551</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44574</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44575</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44581</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44613</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>44616</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>44650</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>44680</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44746</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44761</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44789</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44790</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44851</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44855</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44862</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44862</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44862</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44862</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44865</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44876</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44887</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44893</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44900</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44922</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44950</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44966</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44967</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44970</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44972</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44972</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44972</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44977</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>44980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45007</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45007</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45007</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45007</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45009</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45015</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45019</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45036</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45040</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45041</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45044</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45058</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45058</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45058</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>45058</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45072</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45079</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45082</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45082</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45084</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45091</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>45103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45112</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45112</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45112</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45123</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45123</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45142</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45202</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
